--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tdgf1-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tdgf1-Acvr2a.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tdgf1</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Tdgf1</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="H2">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N2">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q2">
-        <v>1.236291208567333</v>
+        <v>0.093114920479</v>
       </c>
       <c r="R2">
-        <v>11.126620877106</v>
+        <v>0.838034284311</v>
       </c>
       <c r="S2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="T2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="H3">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,25 +620,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q3">
-        <v>3.326453225576444</v>
+        <v>0.189678378764</v>
       </c>
       <c r="R3">
-        <v>29.938079030188</v>
+        <v>1.707105408876</v>
       </c>
       <c r="S3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="T3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="H4">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N4">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q4">
-        <v>2.241592144996555</v>
+        <v>0.131343937403</v>
       </c>
       <c r="R4">
-        <v>20.174329304969</v>
+        <v>1.182095436627</v>
       </c>
       <c r="S4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="T4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1145363333333333</v>
+        <v>0.006530999999999999</v>
       </c>
       <c r="H5">
-        <v>0.343609</v>
+        <v>0.019593</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N5">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q5">
-        <v>0.6122947065892221</v>
+        <v>0.031825941798</v>
       </c>
       <c r="R5">
-        <v>5.510652359303</v>
+        <v>0.286433476182</v>
       </c>
       <c r="S5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="T5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
     </row>
   </sheetData>
